--- a/spliced/struggle/2023-04-06_18-15-34/accelerometer_selected.xlsx
+++ b/spliced/struggle/2023-04-06_18-15-34/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.005503296852111615</v>
+        <v>-0.03444957733154287</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.1945102314154306</v>
+        <v>0.01032954454422018</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2710902802646161</v>
+        <v>0.2995094756285349</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.01686970392863169</v>
+        <v>-0.07984677950541165</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.689376473426814</v>
+        <v>-0.1310317392150563</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.4833486676216042</v>
+        <v>0.2751492535074553</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.7827135920524584</v>
+        <v>-0.09086012840270966</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.646403878927229</v>
+        <v>-0.02373796701431304</v>
       </c>
       <c r="C4" t="n">
-        <v>-4.282532811164854</v>
+        <v>0.2084361910820008</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.04310808579127</v>
+        <v>0.005503296852111615</v>
       </c>
       <c r="B5" t="n">
-        <v>0.482522944609324</v>
+        <v>-0.1945102314154306</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.852447708447774</v>
+        <v>0.2710902802646161</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-2.88519119222959</v>
+        <v>-0.01686970392863169</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.1530523101488742</v>
+        <v>-0.689376473426814</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5539670785268116</v>
+        <v>-0.4833486676216042</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-2.359475612640381</v>
+        <v>0.7827135920524584</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4427683353424072</v>
+        <v>-2.646403878927229</v>
       </c>
       <c r="C7" t="n">
-        <v>1.851428031921387</v>
+        <v>-4.282532811164854</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-3.12837818264961</v>
+        <v>-1.04310808579127</v>
       </c>
       <c r="B8" t="n">
-        <v>1.37843454877535</v>
+        <v>0.482522944609324</v>
       </c>
       <c r="C8" t="n">
-        <v>1.588190158208212</v>
+        <v>-1.852447708447774</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-9.990091621875759</v>
+        <v>-2.88519119222959</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5772410134474441</v>
+        <v>-0.1530523101488742</v>
       </c>
       <c r="C9" t="n">
-        <v>7.240908702214556</v>
+        <v>0.5539670785268116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.089871168136629</v>
+        <v>-2.359475612640381</v>
       </c>
       <c r="B10" t="n">
-        <v>1.149596989154817</v>
+        <v>-0.4427683353424072</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.327601671218906</v>
+        <v>1.851428031921387</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-1.657969951629632</v>
+        <v>-3.12837818264961</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.6963444749514238</v>
+        <v>1.37843454877535</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.005745251973476</v>
+        <v>1.588190158208212</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-2.83851852019628</v>
+        <v>-9.990091621875759</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.4919258654117603</v>
+        <v>0.5772410134474441</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.4817840854326922</v>
+        <v>7.240908702214556</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-1.064056754112247</v>
+        <v>3.089871168136629</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9830632209777808</v>
+        <v>1.149596989154817</v>
       </c>
       <c r="C13" t="n">
-        <v>-6.221896290779103</v>
+        <v>-7.327601671218906</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.642586628595987</v>
+        <v>-1.657969951629632</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.08318759004274168</v>
+        <v>-0.6963444749514238</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.6120627919833304</v>
+        <v>-3.005745251973476</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-2.159881273905432</v>
+        <v>-2.83851852019628</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.468431472778319</v>
+        <v>-0.4919258654117603</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.03336954116820623</v>
+        <v>-0.4817840854326922</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-3.000638425350189</v>
+        <v>-1.064056754112247</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.02016200125217193</v>
+        <v>0.9830632209777808</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.370798766613007</v>
+        <v>-6.221896290779103</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-4.049820343653357</v>
+        <v>-0.642586628595987</v>
       </c>
       <c r="B17" t="n">
-        <v>1.876313845316566</v>
+        <v>-0.08318759004274168</v>
       </c>
       <c r="C17" t="n">
-        <v>1.094406366348257</v>
+        <v>-0.6120627919833304</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-7.227878630161286</v>
+        <v>-2.159881273905432</v>
       </c>
       <c r="B18" t="n">
-        <v>1.69673324127992</v>
+        <v>-1.468431472778319</v>
       </c>
       <c r="C18" t="n">
-        <v>3.92280129591624</v>
+        <v>-0.03336954116820623</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-2.149182796478235</v>
+        <v>-3.000638425350189</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.535205185413374</v>
+        <v>-0.02016200125217193</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8277400732040205</v>
+        <v>-1.370798766613007</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3.039104461669923</v>
+        <v>-4.049820343653357</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.047793030738832</v>
+        <v>1.876313845316566</v>
       </c>
       <c r="C20" t="n">
-        <v>-4.546324898799259</v>
+        <v>1.094406366348257</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-7.227878630161286</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.69673324127992</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.92280129591624</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-2.149182796478235</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-1.535205185413374</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8277400732040205</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3.039104461669923</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-1.047793030738832</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-4.546324898799259</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
         <v>-1.214001258214315</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B24" t="n">
         <v>1.53115118543307</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C24" t="n">
         <v>-4.196547468503316</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-2.15471959114075</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.2546487897634502</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.9123589172959333</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.6330445607503264</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.5185447335243235</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.3759170770645095</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.2923502524693779</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.1014364187916107</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.366777941584587</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-1.484014511108395</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.6635967791080455</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.253775984048842</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.2468122641245533</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.4217223922411623</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.5185143599907569</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.3225175539652509</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.6644023060798641</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.07338536779085762</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.4933383464813202</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.1615586355328552</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.263843480497599</v>
       </c>
     </row>
   </sheetData>
